--- a/backend/pdf_processing/extracted/tables/fileoutpart5.xlsx
+++ b/backend/pdf_processing/extracted/tables/fileoutpart5.xlsx
@@ -14,75 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>Block Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>26.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>Taxi Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>1.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>Flight Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>10.3 g _x000D_</t>
-  </si>
-  <si>
-    <t>Reserve Fuel Min: 8.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>8.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>Alternate Fuel LFNG _x000D_</t>
-  </si>
-  <si>
-    <t>2.7 g _x000D_</t>
-  </si>
-  <si>
-    <t>Extra Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>5.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>Ballast Fuel _x000D_</t>
-  </si>
-  <si>
-    <t>0.0 g _x000D_</t>
-  </si>
-  <si>
-    <t>Additional _x000D_</t>
-  </si>
-  <si>
-    <t>Payload _x000D_</t>
-  </si>
-  <si>
-    <t>260 kg _x000D_</t>
-  </si>
-  <si>
-    <t>ZFW _x000D_</t>
-  </si>
-  <si>
-    <t>1036 kg _x000D_</t>
-  </si>
-  <si>
-    <t>TOW _x000D_</t>
-  </si>
-  <si>
-    <t>1104 kg _x000D_</t>
-  </si>
-  <si>
-    <t>ELW _x000D_</t>
-  </si>
-  <si>
-    <t>1079 kg _x000D_</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>PIC _x000D_</t>
+  </si>
+  <si>
+    <t>Petr Borodkin _x000D_</t>
+  </si>
+  <si>
+    <t>Souls on board _x000D_</t>
+  </si>
+  <si>
+    <t>3 _x000D_</t>
+  </si>
+  <si>
+    <t>Tail _x000D_</t>
+  </si>
+  <si>
+    <t>FHFPH (C172) _x000D_</t>
+  </si>
+  <si>
+    <t>Profile _x000D_</t>
+  </si>
+  <si>
+    <t>Full Throttle - 2400RPM Lean Mixture @ 2000' - Min RPM 500 fpm _x000D_</t>
+  </si>
+  <si>
+    <t>Fuel Flow _x000D_</t>
+  </si>
+  <si>
+    <t>9.6 g/hr _x000D_</t>
+  </si>
+  <si>
+    <t>Distance _x000D_</t>
+  </si>
+  <si>
+    <t>85NM _x000D_</t>
+  </si>
+  <si>
+    <t>ETD _x000D_</t>
+  </si>
+  <si>
+    <t>1300Z _x000D_</t>
+  </si>
+  <si>
+    <t>ETE _x000D_</t>
+  </si>
+  <si>
+    <t>0h50m _x000D_</t>
+  </si>
+  <si>
+    <t>ETA _x000D_</t>
+  </si>
+  <si>
+    <t>1350Z _x000D_</t>
+  </si>
+  <si>
+    <t>Route _x000D_</t>
+  </si>
+  <si>
+    <t>4842N00159E/N011 0A020 4834N00159E/N011 0A016 ONE OE OSE _x000D_</t>
+  </si>
+  <si>
+    <t>Altitude _x000D_</t>
+  </si>
+  <si>
+    <t>2000' _x000D_</t>
   </si>
 </sst>
 </file>
@@ -141,10 +138,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,21 +437,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -474,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" customHeight="1">
+    <row r="4" spans="1:2" ht="56" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -511,39 +508,31 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="68" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="21" customHeight="1">
-      <c r="A12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
